--- a/vocab_modified.xlsx
+++ b/vocab_modified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn_Korean_App\Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868B315A-9FA6-4C44-9A15-F94137531BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89332937-5BD2-451C-967D-E788E4220027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E38A29CB-43D3-46E8-AE9D-CFCFA45D12E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E38A29CB-43D3-46E8-AE9D-CFCFA45D12E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="673">
   <si>
     <t>Đến</t>
   </si>
@@ -852,6 +852,1209 @@
   </si>
   <si>
     <t>Korean</t>
+  </si>
+  <si>
+    <t>Đơn vị: cái</t>
+  </si>
+  <si>
+    <t>Đơn vị: người (1 chữ)</t>
+  </si>
+  <si>
+    <t>Đơn vị: người (2 chữ)</t>
+  </si>
+  <si>
+    <t>Đơn vị: con</t>
+  </si>
+  <si>
+    <t>Đơn vị: chén</t>
+  </si>
+  <si>
+    <t>Đơn vị: chiếc</t>
+  </si>
+  <si>
+    <t>Đơn vị: bình</t>
+  </si>
+  <si>
+    <t>Đơn vị: đôi</t>
+  </si>
+  <si>
+    <t>Đơn vị: quyển</t>
+  </si>
+  <si>
+    <t>Đơn vị: trang</t>
+  </si>
+  <si>
+    <t>Hoa quả</t>
+  </si>
+  <si>
+    <t>Rau</t>
+  </si>
+  <si>
+    <t>Thức uống</t>
+  </si>
+  <si>
+    <t>Quần áo</t>
+  </si>
+  <si>
+    <t>Váy</t>
+  </si>
+  <si>
+    <t>Giày</t>
+  </si>
+  <si>
+    <t>Mũ</t>
+  </si>
+  <si>
+    <t>개</t>
+  </si>
+  <si>
+    <t>명</t>
+  </si>
+  <si>
+    <t>사람</t>
+  </si>
+  <si>
+    <t>마리</t>
+  </si>
+  <si>
+    <t>잔</t>
+  </si>
+  <si>
+    <t>대</t>
+  </si>
+  <si>
+    <t>병</t>
+  </si>
+  <si>
+    <t>컬레</t>
+  </si>
+  <si>
+    <t>권</t>
+  </si>
+  <si>
+    <t>장</t>
+  </si>
+  <si>
+    <t>과일</t>
+  </si>
+  <si>
+    <t>채소</t>
+  </si>
+  <si>
+    <t>음료수</t>
+  </si>
+  <si>
+    <t>옷</t>
+  </si>
+  <si>
+    <t>Quần</t>
+  </si>
+  <si>
+    <t>바지</t>
+  </si>
+  <si>
+    <t>치마</t>
+  </si>
+  <si>
+    <t>구두</t>
+  </si>
+  <si>
+    <t>모자</t>
+  </si>
+  <si>
+    <t>Bánh quy</t>
+  </si>
+  <si>
+    <t>Nước hoa quả</t>
+  </si>
+  <si>
+    <t>Cá (món ăn)</t>
+  </si>
+  <si>
+    <t>Cá (chỉ chung)</t>
+  </si>
+  <si>
+    <t>Quả quýt</t>
+  </si>
+  <si>
+    <t>Hiệu sách</t>
+  </si>
+  <si>
+    <t>Máy ảnh</t>
+  </si>
+  <si>
+    <t>Thiết kế</t>
+  </si>
+  <si>
+    <t>Hạ giá</t>
+  </si>
+  <si>
+    <t>Áo sơ mi</t>
+  </si>
+  <si>
+    <t>Siêu thị nhỏ</t>
+  </si>
+  <si>
+    <t>Sách tiểu thuyết</t>
+  </si>
+  <si>
+    <t>Hộp bút</t>
+  </si>
+  <si>
+    <t>Xoài</t>
+  </si>
+  <si>
+    <t>Dưa hấu</t>
+  </si>
+  <si>
+    <t>Cửa hàng văn phòng phẩm</t>
+  </si>
+  <si>
+    <t>Khu bán hàng điện tử</t>
+  </si>
+  <si>
+    <t>과자</t>
+  </si>
+  <si>
+    <t>생선</t>
+  </si>
+  <si>
+    <t>물고기</t>
+  </si>
+  <si>
+    <t>주스</t>
+  </si>
+  <si>
+    <t>귤</t>
+  </si>
+  <si>
+    <t>서점</t>
+  </si>
+  <si>
+    <t>카메라</t>
+  </si>
+  <si>
+    <t>디자인</t>
+  </si>
+  <si>
+    <t>세일</t>
+  </si>
+  <si>
+    <t>티셔츠</t>
+  </si>
+  <si>
+    <t>마트</t>
+  </si>
+  <si>
+    <t>소설책</t>
+  </si>
+  <si>
+    <t>필통</t>
+  </si>
+  <si>
+    <t>망고</t>
+  </si>
+  <si>
+    <t>수박</t>
+  </si>
+  <si>
+    <t>문구점</t>
+  </si>
+  <si>
+    <t>전자상가</t>
+  </si>
+  <si>
+    <t>Cơm</t>
+  </si>
+  <si>
+    <t>Canh</t>
+  </si>
+  <si>
+    <t>Kim chi</t>
+  </si>
+  <si>
+    <t>Ngon</t>
+  </si>
+  <si>
+    <t>Không ngon</t>
+  </si>
+  <si>
+    <t>Ngọt</t>
+  </si>
+  <si>
+    <t>Đắng</t>
+  </si>
+  <si>
+    <t>Mặn</t>
+  </si>
+  <si>
+    <t>Chua</t>
+  </si>
+  <si>
+    <t>Cay</t>
+  </si>
+  <si>
+    <t>Nhạt</t>
+  </si>
+  <si>
+    <t>Thìa, muỗng</t>
+  </si>
+  <si>
+    <t>Đũa</t>
+  </si>
+  <si>
+    <t>Thực đơn</t>
+  </si>
+  <si>
+    <t>Cốc, ly</t>
+  </si>
+  <si>
+    <t>Bàn ăn</t>
+  </si>
+  <si>
+    <t>Người phục vụ</t>
+  </si>
+  <si>
+    <t>Khách</t>
+  </si>
+  <si>
+    <t>Hóa đơn</t>
+  </si>
+  <si>
+    <t>Nơi hút thuốc lá</t>
+  </si>
+  <si>
+    <t>Nơi cấm thuốc lá</t>
+  </si>
+  <si>
+    <t>Gọi món</t>
+  </si>
+  <si>
+    <t>Tính tiền</t>
+  </si>
+  <si>
+    <t>Phiếu thanh toán</t>
+  </si>
+  <si>
+    <t>밥</t>
+  </si>
+  <si>
+    <t>국</t>
+  </si>
+  <si>
+    <t>김치</t>
+  </si>
+  <si>
+    <t>맛있다</t>
+  </si>
+  <si>
+    <t>맛없다</t>
+  </si>
+  <si>
+    <t>달다</t>
+  </si>
+  <si>
+    <t>쓰다</t>
+  </si>
+  <si>
+    <t>짜다</t>
+  </si>
+  <si>
+    <t>시다</t>
+  </si>
+  <si>
+    <t>맵다</t>
+  </si>
+  <si>
+    <t>싱겁다</t>
+  </si>
+  <si>
+    <t>숟가락</t>
+  </si>
+  <si>
+    <t>젓가락</t>
+  </si>
+  <si>
+    <t>메뉴</t>
+  </si>
+  <si>
+    <t>컵</t>
+  </si>
+  <si>
+    <t>테이블</t>
+  </si>
+  <si>
+    <t>종업원</t>
+  </si>
+  <si>
+    <t>손님</t>
+  </si>
+  <si>
+    <t>흡연석</t>
+  </si>
+  <si>
+    <t>금연석</t>
+  </si>
+  <si>
+    <t>영수증</t>
+  </si>
+  <si>
+    <t>주문하다</t>
+  </si>
+  <si>
+    <t>계산하다</t>
+  </si>
+  <si>
+    <t>계산서</t>
+  </si>
+  <si>
+    <t>Cà tím</t>
+  </si>
+  <si>
+    <t>Ớt</t>
+  </si>
+  <si>
+    <t>Bình thường</t>
+  </si>
+  <si>
+    <t>Vì vậy</t>
+  </si>
+  <si>
+    <t>Chờ đợi</t>
+  </si>
+  <si>
+    <t>Muối</t>
+  </si>
+  <si>
+    <t>Một chút</t>
+  </si>
+  <si>
+    <t>Chỉ một lát</t>
+  </si>
+  <si>
+    <t>Chồng</t>
+  </si>
+  <si>
+    <t>Cho</t>
+  </si>
+  <si>
+    <t>Trà xanh</t>
+  </si>
+  <si>
+    <t>Ngồi</t>
+  </si>
+  <si>
+    <t>Thêm, nữa, càng</t>
+  </si>
+  <si>
+    <t>Xin mời</t>
+  </si>
+  <si>
+    <t>Chanh</t>
+  </si>
+  <si>
+    <t>Nhiều, vài</t>
+  </si>
+  <si>
+    <t>Làm, tạo nên</t>
+  </si>
+  <si>
+    <t>Bánh kem</t>
+  </si>
+  <si>
+    <t>Một cách ngon lành</t>
+  </si>
+  <si>
+    <t>Trà sâm</t>
+  </si>
+  <si>
+    <t>Đặc biệt</t>
+  </si>
+  <si>
+    <t>Món ăn phụ</t>
+  </si>
+  <si>
+    <t>Luôn luôn</t>
+  </si>
+  <si>
+    <t>가지</t>
+  </si>
+  <si>
+    <t>잠깐만</t>
+  </si>
+  <si>
+    <t>고추</t>
+  </si>
+  <si>
+    <t>보통</t>
+  </si>
+  <si>
+    <t>그개서</t>
+  </si>
+  <si>
+    <t>기다리다</t>
+  </si>
+  <si>
+    <t>소금</t>
+  </si>
+  <si>
+    <t>좀</t>
+  </si>
+  <si>
+    <t>남편</t>
+  </si>
+  <si>
+    <t>주다</t>
+  </si>
+  <si>
+    <t>눅차</t>
+  </si>
+  <si>
+    <t>앉다</t>
+  </si>
+  <si>
+    <t>더</t>
+  </si>
+  <si>
+    <t>어서</t>
+  </si>
+  <si>
+    <t>드시다</t>
+  </si>
+  <si>
+    <t>레몬</t>
+  </si>
+  <si>
+    <t>여러</t>
+  </si>
+  <si>
+    <t>만들다</t>
+  </si>
+  <si>
+    <t>케이크</t>
+  </si>
+  <si>
+    <t>맛았게</t>
+  </si>
+  <si>
+    <t>인삼차</t>
+  </si>
+  <si>
+    <t>특히</t>
+  </si>
+  <si>
+    <t>반찬</t>
+  </si>
+  <si>
+    <t>항상</t>
+  </si>
+  <si>
+    <t>Ở trên</t>
+  </si>
+  <si>
+    <t>Ở dưới</t>
+  </si>
+  <si>
+    <t>Ở trong</t>
+  </si>
+  <si>
+    <t>Ở ngoài</t>
+  </si>
+  <si>
+    <t>Bên cạnh</t>
+  </si>
+  <si>
+    <t>Giữa</t>
+  </si>
+  <si>
+    <t>Trước</t>
+  </si>
+  <si>
+    <t>Ở sau</t>
+  </si>
+  <si>
+    <t>Bên trái</t>
+  </si>
+  <si>
+    <t>Bên phải</t>
+  </si>
+  <si>
+    <t>Hai phía</t>
+  </si>
+  <si>
+    <t>Đối diện</t>
+  </si>
+  <si>
+    <t>Thẳng</t>
+  </si>
+  <si>
+    <t>Đông</t>
+  </si>
+  <si>
+    <t>Tây</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Bắc</t>
+  </si>
+  <si>
+    <t>위</t>
+  </si>
+  <si>
+    <t>아래</t>
+  </si>
+  <si>
+    <t>안</t>
+  </si>
+  <si>
+    <t>밖</t>
+  </si>
+  <si>
+    <t>옆</t>
+  </si>
+  <si>
+    <t>사이</t>
+  </si>
+  <si>
+    <t>앞</t>
+  </si>
+  <si>
+    <t>뒤</t>
+  </si>
+  <si>
+    <t>왼쪽</t>
+  </si>
+  <si>
+    <t>오른쪽</t>
+  </si>
+  <si>
+    <t>양쪽</t>
+  </si>
+  <si>
+    <t>거너편,맞은편</t>
+  </si>
+  <si>
+    <t>똑바로,쭉</t>
+  </si>
+  <si>
+    <t>동</t>
+  </si>
+  <si>
+    <t>남</t>
+  </si>
+  <si>
+    <t>북</t>
+  </si>
+  <si>
+    <t>Nhà riêng</t>
+  </si>
+  <si>
+    <t>Nhà chung cư</t>
+  </si>
+  <si>
+    <t>Phòng trong</t>
+  </si>
+  <si>
+    <t>Phòng học</t>
+  </si>
+  <si>
+    <t>Phòng khách</t>
+  </si>
+  <si>
+    <t>Bếp</t>
+  </si>
+  <si>
+    <t>Nhà vệ sinh</t>
+  </si>
+  <si>
+    <t>Lối vào</t>
+  </si>
+  <si>
+    <t>Ban công</t>
+  </si>
+  <si>
+    <t>Nhà văn phòng</t>
+  </si>
+  <si>
+    <t>Phòng giặt đồ</t>
+  </si>
+  <si>
+    <t>Phòng ngủ</t>
+  </si>
+  <si>
+    <t>Giường</t>
+  </si>
+  <si>
+    <t>Tủ sách</t>
+  </si>
+  <si>
+    <t>Tủ quần áo</t>
+  </si>
+  <si>
+    <t>Ghế sofa</t>
+  </si>
+  <si>
+    <t>Bàn</t>
+  </si>
+  <si>
+    <t>Bàn trang điểm</t>
+  </si>
+  <si>
+    <t>Tủ giày</t>
+  </si>
+  <si>
+    <t>Bàn ăn (nhà hàng)</t>
+  </si>
+  <si>
+    <t>주택</t>
+  </si>
+  <si>
+    <t>아파트</t>
+  </si>
+  <si>
+    <t>안방</t>
+  </si>
+  <si>
+    <t>공부방</t>
+  </si>
+  <si>
+    <t>거실</t>
+  </si>
+  <si>
+    <t>부옄</t>
+  </si>
+  <si>
+    <t>화장실</t>
+  </si>
+  <si>
+    <t>현관</t>
+  </si>
+  <si>
+    <t>베란다</t>
+  </si>
+  <si>
+    <t>오피스텔</t>
+  </si>
+  <si>
+    <t>세탁실</t>
+  </si>
+  <si>
+    <t>침실</t>
+  </si>
+  <si>
+    <t>침대</t>
+  </si>
+  <si>
+    <t>책장</t>
+  </si>
+  <si>
+    <t>옷장</t>
+  </si>
+  <si>
+    <t>소파</t>
+  </si>
+  <si>
+    <t>탁자</t>
+  </si>
+  <si>
+    <t>식탁</t>
+  </si>
+  <si>
+    <t>화장대</t>
+  </si>
+  <si>
+    <t>신발장</t>
+  </si>
+  <si>
+    <t>Ký túc xá</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Tiện lợi</t>
+  </si>
+  <si>
+    <t>Nhà đơn lập</t>
+  </si>
+  <si>
+    <t>Nhà thuê</t>
+  </si>
+  <si>
+    <t>Thoải mái</t>
+  </si>
+  <si>
+    <t>Phức tạp</t>
+  </si>
+  <si>
+    <t>Vườn</t>
+  </si>
+  <si>
+    <t>Tiền thuê nhà trọ</t>
+  </si>
+  <si>
+    <t>Bất tiện</t>
+  </si>
+  <si>
+    <t>Sống, trải qua</t>
+  </si>
+  <si>
+    <t>Nhà trọ</t>
+  </si>
+  <si>
+    <t>Văn phòng</t>
+  </si>
+  <si>
+    <t>Hầm, dưới lòng đất</t>
+  </si>
+  <si>
+    <t>Khách sạn</t>
+  </si>
+  <si>
+    <t>Sử dụng, dùng</t>
+  </si>
+  <si>
+    <t>Thân thiện, tử tế</t>
+  </si>
+  <si>
+    <t>Một mình</t>
+  </si>
+  <si>
+    <t>기숙사</t>
+  </si>
+  <si>
+    <t>인터넷</t>
+  </si>
+  <si>
+    <t>편리하다</t>
+  </si>
+  <si>
+    <t>단독주택</t>
+  </si>
+  <si>
+    <t>자취 집</t>
+  </si>
+  <si>
+    <t>편하다</t>
+  </si>
+  <si>
+    <t>복잡하다</t>
+  </si>
+  <si>
+    <t>정원</t>
+  </si>
+  <si>
+    <t>하숙비</t>
+  </si>
+  <si>
+    <t>불편하다</t>
+  </si>
+  <si>
+    <t>지내다</t>
+  </si>
+  <si>
+    <t>하숙집</t>
+  </si>
+  <si>
+    <t>사무실</t>
+  </si>
+  <si>
+    <t>지하</t>
+  </si>
+  <si>
+    <t>호텔</t>
+  </si>
+  <si>
+    <t>사용하다</t>
+  </si>
+  <si>
+    <t>친절하다</t>
+  </si>
+  <si>
+    <t>혼자</t>
+  </si>
+  <si>
+    <t>Chapter</t>
+  </si>
+  <si>
+    <t>Học sinh</t>
+  </si>
+  <si>
+    <t>Nhân viên công ty</t>
+  </si>
+  <si>
+    <t>Nhân viên ngân hàng</t>
+  </si>
+  <si>
+    <t>Giáo viên</t>
+  </si>
+  <si>
+    <t>Bác sĩ</t>
+  </si>
+  <si>
+    <t>Công chức</t>
+  </si>
+  <si>
+    <t>Hướng dẫn viên du lịch</t>
+  </si>
+  <si>
+    <t>Nội trợ</t>
+  </si>
+  <si>
+    <t>Dược sĩ</t>
+  </si>
+  <si>
+    <t>Tài xế</t>
+  </si>
+  <si>
+    <t>학생</t>
+  </si>
+  <si>
+    <t>회사원</t>
+  </si>
+  <si>
+    <t>은행원</t>
+  </si>
+  <si>
+    <t>선생님</t>
+  </si>
+  <si>
+    <t>의사</t>
+  </si>
+  <si>
+    <t>공무원</t>
+  </si>
+  <si>
+    <t>관광 가이드</t>
+  </si>
+  <si>
+    <t>주부</t>
+  </si>
+  <si>
+    <t>약사</t>
+  </si>
+  <si>
+    <t>운전기사</t>
+  </si>
+  <si>
+    <t>Khoa ngữ văn</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Quốc tịch</t>
+  </si>
+  <si>
+    <t>Ngân hàng</t>
+  </si>
+  <si>
+    <t>Nghề nghiệp</t>
+  </si>
+  <si>
+    <t>Bộ môn</t>
+  </si>
+  <si>
+    <t>Trường đại học</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Mã số sinh viên</t>
+  </si>
+  <si>
+    <t>Sinh viên</t>
+  </si>
+  <si>
+    <t>Thẻ sinh viên</t>
+  </si>
+  <si>
+    <t>Ví dụ</t>
+  </si>
+  <si>
+    <t>Điện thoại</t>
+  </si>
+  <si>
+    <t>Khoa Hàn ngữ</t>
+  </si>
+  <si>
+    <t>국어국문학과</t>
+  </si>
+  <si>
+    <t>주소</t>
+  </si>
+  <si>
+    <t>국적</t>
+  </si>
+  <si>
+    <t>은행</t>
+  </si>
+  <si>
+    <t>직업</t>
+  </si>
+  <si>
+    <t>학과</t>
+  </si>
+  <si>
+    <t>대학교</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>학번</t>
+  </si>
+  <si>
+    <t>대학생</t>
+  </si>
+  <si>
+    <t>학생증</t>
+  </si>
+  <si>
+    <t>보기</t>
+  </si>
+  <si>
+    <t>전화</t>
+  </si>
+  <si>
+    <t>한국어과</t>
+  </si>
+  <si>
+    <t>Trường học</t>
+  </si>
+  <si>
+    <t>Thư viện</t>
+  </si>
+  <si>
+    <t>Nhà ăn</t>
+  </si>
+  <si>
+    <t>Nhà hát</t>
+  </si>
+  <si>
+    <t>Bưu điện</t>
+  </si>
+  <si>
+    <t>Bệnh viện</t>
+  </si>
+  <si>
+    <t>Cửa hàng bách hóa</t>
+  </si>
+  <si>
+    <t>Hiệu thuốc</t>
+  </si>
+  <si>
+    <t>Cửa tiệm</t>
+  </si>
+  <si>
+    <t>Giảng đường</t>
+  </si>
+  <si>
+    <t>Phòng nghỉ</t>
+  </si>
+  <si>
+    <t>Phòng Lab</t>
+  </si>
+  <si>
+    <t>Phòng sinh hoạt câu lạc bộ</t>
+  </si>
+  <si>
+    <t>Nhà thi đấu thể thao</t>
+  </si>
+  <si>
+    <t>Sân vận động</t>
+  </si>
+  <si>
+    <t>Giảng đường lớn, hội trường</t>
+  </si>
+  <si>
+    <t>Phòng hội thảo</t>
+  </si>
+  <si>
+    <t>학교</t>
+  </si>
+  <si>
+    <t>도서관</t>
+  </si>
+  <si>
+    <t>식당</t>
+  </si>
+  <si>
+    <t>극장</t>
+  </si>
+  <si>
+    <t>우체국</t>
+  </si>
+  <si>
+    <t>병원</t>
+  </si>
+  <si>
+    <t>백화점</t>
+  </si>
+  <si>
+    <t>약국</t>
+  </si>
+  <si>
+    <t>가게</t>
+  </si>
+  <si>
+    <t>강의실</t>
+  </si>
+  <si>
+    <t>교실</t>
+  </si>
+  <si>
+    <t>휴게실</t>
+  </si>
+  <si>
+    <t>렙실,어학실</t>
+  </si>
+  <si>
+    <t>동아리방</t>
+  </si>
+  <si>
+    <t>체육관</t>
+  </si>
+  <si>
+    <t>운동장</t>
+  </si>
+  <si>
+    <t>가당</t>
+  </si>
+  <si>
+    <t>세미나실</t>
+  </si>
+  <si>
+    <t>Bàn đọc sách</t>
+  </si>
+  <si>
+    <t>Ghế</t>
+  </si>
+  <si>
+    <t>Bảng</t>
+  </si>
+  <si>
+    <t>Cửa</t>
+  </si>
+  <si>
+    <t>Cửa sổ</t>
+  </si>
+  <si>
+    <t>Đồng hồ</t>
+  </si>
+  <si>
+    <t>Cặp sách</t>
+  </si>
+  <si>
+    <t>Máy vi tính</t>
+  </si>
+  <si>
+    <t>Sách</t>
+  </si>
+  <si>
+    <t>Vở</t>
+  </si>
+  <si>
+    <t>Từ điển</t>
+  </si>
+  <si>
+    <t>Cục tẩy</t>
+  </si>
+  <si>
+    <t>Bản đồ</t>
+  </si>
+  <si>
+    <t>Bút, viết</t>
+  </si>
+  <si>
+    <t>책상</t>
+  </si>
+  <si>
+    <t>의자</t>
+  </si>
+  <si>
+    <t>칠판</t>
+  </si>
+  <si>
+    <t>문</t>
+  </si>
+  <si>
+    <t>창문</t>
+  </si>
+  <si>
+    <t>시계</t>
+  </si>
+  <si>
+    <t>가방</t>
+  </si>
+  <si>
+    <t>컴퓨터</t>
+  </si>
+  <si>
+    <t>책</t>
+  </si>
+  <si>
+    <t>공책</t>
+  </si>
+  <si>
+    <t>사전</t>
+  </si>
+  <si>
+    <t>지우개</t>
+  </si>
+  <si>
+    <t>지도</t>
+  </si>
+  <si>
+    <t>펜</t>
+  </si>
+  <si>
+    <t>Xem phim</t>
+  </si>
+  <si>
+    <t>Bơi</t>
+  </si>
+  <si>
+    <t>Nghỉ</t>
+  </si>
+  <si>
+    <t>Ăn ngoài</t>
+  </si>
+  <si>
+    <t>Gặp bạn</t>
+  </si>
+  <si>
+    <t>Đi dã ngoại</t>
+  </si>
+  <si>
+    <t>Đọc sách</t>
+  </si>
+  <si>
+    <t>영화를 보다</t>
+  </si>
+  <si>
+    <t>수영하다</t>
+  </si>
+  <si>
+    <t>쉬다</t>
+  </si>
+  <si>
+    <t>외식하다</t>
+  </si>
+  <si>
+    <t>친구를 만나다</t>
+  </si>
+  <si>
+    <t>산책하다</t>
+  </si>
+  <si>
+    <t>소퐁가다</t>
+  </si>
+  <si>
+    <t>책을 읽다</t>
   </si>
 </sst>
 </file>
@@ -1247,1162 +2450,3883 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240C80E1-0877-49F4-B213-880C20497FE1}">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:C351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:B343"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="B309" sqref="B309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B7" t="s">
+        <v>562</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B8" t="s">
+        <v>563</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>555</v>
+      </c>
+      <c r="B10" t="s">
+        <v>565</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>556</v>
+      </c>
+      <c r="B11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B12" t="s">
+        <v>581</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>568</v>
+      </c>
+      <c r="B13" t="s">
+        <v>582</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>569</v>
+      </c>
+      <c r="B14" t="s">
+        <v>583</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>570</v>
+      </c>
+      <c r="B15" t="s">
+        <v>584</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>571</v>
+      </c>
+      <c r="B16" t="s">
+        <v>585</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>572</v>
+      </c>
+      <c r="B17" t="s">
+        <v>586</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>573</v>
+      </c>
+      <c r="B18" t="s">
+        <v>587</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>574</v>
+      </c>
+      <c r="B19" t="s">
+        <v>588</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>575</v>
+      </c>
+      <c r="B20" t="s">
+        <v>589</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>576</v>
+      </c>
+      <c r="B21" t="s">
+        <v>590</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>577</v>
+      </c>
+      <c r="B22" t="s">
+        <v>591</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>578</v>
+      </c>
+      <c r="B23" t="s">
+        <v>592</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>579</v>
+      </c>
+      <c r="B24" t="s">
+        <v>593</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>580</v>
+      </c>
+      <c r="B25" t="s">
+        <v>594</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>595</v>
+      </c>
+      <c r="B26" t="s">
+        <v>612</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>596</v>
+      </c>
+      <c r="B27" t="s">
+        <v>613</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>597</v>
+      </c>
+      <c r="B28" t="s">
+        <v>614</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>524</v>
+      </c>
+      <c r="B29" t="s">
+        <v>542</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>598</v>
+      </c>
+      <c r="B30" t="s">
+        <v>615</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>599</v>
+      </c>
+      <c r="B31" t="s">
+        <v>616</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>600</v>
+      </c>
+      <c r="B32" t="s">
+        <v>617</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>601</v>
+      </c>
+      <c r="B33" t="s">
+        <v>618</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>602</v>
+      </c>
+      <c r="B34" t="s">
+        <v>619</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>603</v>
+      </c>
+      <c r="B35" t="s">
+        <v>620</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>604</v>
+      </c>
+      <c r="B36" t="s">
+        <v>621</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>473</v>
+      </c>
+      <c r="B37" t="s">
+        <v>622</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>605</v>
+      </c>
+      <c r="B38" t="s">
+        <v>623</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>606</v>
+      </c>
+      <c r="B39" t="s">
+        <v>624</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>607</v>
+      </c>
+      <c r="B40" t="s">
+        <v>625</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>608</v>
+      </c>
+      <c r="B41" t="s">
+        <v>626</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>609</v>
+      </c>
+      <c r="B42" t="s">
+        <v>627</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>610</v>
+      </c>
+      <c r="B43" t="s">
+        <v>628</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>611</v>
+      </c>
+      <c r="B44" t="s">
+        <v>629</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>313</v>
+      </c>
+      <c r="B45" t="s">
+        <v>330</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>630</v>
+      </c>
+      <c r="B46" t="s">
+        <v>644</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>631</v>
+      </c>
+      <c r="B47" t="s">
+        <v>645</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>632</v>
+      </c>
+      <c r="B48" t="s">
+        <v>646</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>633</v>
+      </c>
+      <c r="B49" t="s">
+        <v>647</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>634</v>
+      </c>
+      <c r="B50" t="s">
+        <v>648</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>635</v>
+      </c>
+      <c r="B51" t="s">
+        <v>649</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>636</v>
+      </c>
+      <c r="B52" t="s">
+        <v>650</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>637</v>
+      </c>
+      <c r="B53" t="s">
+        <v>651</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>638</v>
+      </c>
+      <c r="B54" t="s">
+        <v>652</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>639</v>
+      </c>
+      <c r="B55" t="s">
+        <v>653</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>640</v>
+      </c>
+      <c r="B56" t="s">
+        <v>654</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>641</v>
+      </c>
+      <c r="B57" t="s">
+        <v>655</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>642</v>
+      </c>
+      <c r="B58" t="s">
+        <v>656</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>643</v>
+      </c>
+      <c r="B59" t="s">
+        <v>657</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B60" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B61" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B62" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B63" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B64" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B65" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B66" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B67" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B68" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B69" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B70" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B71" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B72" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B73" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B74" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B75" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B76" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B77" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B78" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B79" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B80" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>42</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B81" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>44</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B82" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>46</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B83" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>48</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B84" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>50</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B85" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>52</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B86" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>54</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B87" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>56</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B88" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>58</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B89" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>60</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B90" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>62</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B91" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>64</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B92" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>66</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B93" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>68</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B94" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>70</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B95" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>72</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B96" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>74</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B97" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>76</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B98" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>78</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B99" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>80</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B100" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>82</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B101" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="C101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>84</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B102" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>86</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B103" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>88</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B104" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>90</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B105" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="C105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>92</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B106" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>94</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B107" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="C107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>96</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B108" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="C108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>98</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B109" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="C109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>100</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B110" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="C110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>102</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B111" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>104</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B112" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>106</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B113" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="C113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>108</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B114" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="C114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>110</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B115" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>112</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B116" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>114</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B117" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="C117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>116</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="C118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>118</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B119" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="C119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>120</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B120" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="C120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>122</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B121" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="C121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>124</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B122" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="C122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>126</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B123" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="C123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>128</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B124" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="C124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>130</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B125" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="C125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>132</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B126" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="C126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>134</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B127" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="C127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>136</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B128" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="C128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>138</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B129" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="C129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>140</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B130" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="C130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>142</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B131" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="C131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>144</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B132" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="C132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>146</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B133" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="C133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>148</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B134" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="C134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>150</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B135" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="C135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>152</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B136" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="C136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>154</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B137" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="C137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>156</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B138" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="C138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>158</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B139" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="C139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>160</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B140" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="C140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>162</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B141" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="C141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>164</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B142" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="C142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>166</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B143" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="C143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>168</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B144" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="C144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>170</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B145" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="C145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>172</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B146" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="C146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>174</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B147" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="C147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>176</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B148" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="C148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>178</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B149" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="C149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>180</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B150" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="C150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>182</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B151" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="C151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>184</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B152" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="C152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>186</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B153" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="C153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>188</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B154" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="C154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>190</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B155" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="C155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>192</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B156" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="C156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>194</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B157" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="C157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>196</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B158" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="C158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>198</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B159" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="C159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>200</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B160" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="C160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>202</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B161" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="C161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>90</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B162" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="C162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>204</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B163" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="C163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>206</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B164" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="C164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>208</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B165" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="C165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>210</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B166" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="C166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>212</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B167" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="C167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>10</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B168" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="C168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>214</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B169" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="C169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>215</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B170" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="C170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>18</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B171" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="C171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>217</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B172" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="C172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>219</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B173" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="C173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>221</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B174" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="C174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>223</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B175" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="C175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>225</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B176" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="C176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>227</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B177" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="C177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>229</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B178" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="C178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>2</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B179" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="C179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>231</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B180" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="C180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>233</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B181" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="C181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>235</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B182" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="C182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>237</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B183" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="C183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>239</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B184" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="C184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>223</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B185" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="C185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>241</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B186" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="C186">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>243</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B187" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="C187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>245</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B188" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="C188">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>88</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B189" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="C189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>246</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B190" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="C190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>248</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B191" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="C191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>250</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B192" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="C192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>252</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B193" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="C193">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>254</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B194" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="C194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>256</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B195" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="C195">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>258</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B196" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="C196">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>260</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B197" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="C197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>262</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B198" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="C198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>264</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B199" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="C199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>266</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B200" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="C200">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>268</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B201" t="s">
         <v>269</v>
       </c>
+      <c r="C201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>168</v>
+      </c>
+      <c r="B202" t="s">
+        <v>169</v>
+      </c>
+      <c r="C202">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>658</v>
+      </c>
+      <c r="B203" t="s">
+        <v>665</v>
+      </c>
+      <c r="C203">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>20</v>
+      </c>
+      <c r="B204" t="s">
+        <v>21</v>
+      </c>
+      <c r="C204">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>144</v>
+      </c>
+      <c r="B205" t="s">
+        <v>145</v>
+      </c>
+      <c r="C205">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>146</v>
+      </c>
+      <c r="B206" t="s">
+        <v>147</v>
+      </c>
+      <c r="C206">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>659</v>
+      </c>
+      <c r="B207" t="s">
+        <v>666</v>
+      </c>
+      <c r="C207">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>660</v>
+      </c>
+      <c r="B208" t="s">
+        <v>667</v>
+      </c>
+      <c r="C208">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>661</v>
+      </c>
+      <c r="B209" t="s">
+        <v>668</v>
+      </c>
+      <c r="C209">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>662</v>
+      </c>
+      <c r="B210" t="s">
+        <v>669</v>
+      </c>
+      <c r="C210">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>142</v>
+      </c>
+      <c r="B211" t="s">
+        <v>670</v>
+      </c>
+      <c r="C211">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>663</v>
+      </c>
+      <c r="B212" t="s">
+        <v>671</v>
+      </c>
+      <c r="C212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>664</v>
+      </c>
+      <c r="B213" t="s">
+        <v>672</v>
+      </c>
+      <c r="C213">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>272</v>
+      </c>
+      <c r="B214" t="s">
+        <v>289</v>
+      </c>
+      <c r="C214">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>273</v>
+      </c>
+      <c r="B215" t="s">
+        <v>290</v>
+      </c>
+      <c r="C215">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>274</v>
+      </c>
+      <c r="B216" t="s">
+        <v>291</v>
+      </c>
+      <c r="C216">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>275</v>
+      </c>
+      <c r="B217" t="s">
+        <v>292</v>
+      </c>
+      <c r="C217">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>276</v>
+      </c>
+      <c r="B218" t="s">
+        <v>293</v>
+      </c>
+      <c r="C218">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>277</v>
+      </c>
+      <c r="B219" t="s">
+        <v>294</v>
+      </c>
+      <c r="C219">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>278</v>
+      </c>
+      <c r="B220" t="s">
+        <v>295</v>
+      </c>
+      <c r="C220">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>279</v>
+      </c>
+      <c r="B221" t="s">
+        <v>296</v>
+      </c>
+      <c r="C221">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>280</v>
+      </c>
+      <c r="B222" t="s">
+        <v>297</v>
+      </c>
+      <c r="C222">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>281</v>
+      </c>
+      <c r="B223" t="s">
+        <v>298</v>
+      </c>
+      <c r="C223">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>282</v>
+      </c>
+      <c r="B224" t="s">
+        <v>299</v>
+      </c>
+      <c r="C224">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>283</v>
+      </c>
+      <c r="B225" t="s">
+        <v>300</v>
+      </c>
+      <c r="C225">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>284</v>
+      </c>
+      <c r="B226" t="s">
+        <v>301</v>
+      </c>
+      <c r="C226">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>285</v>
+      </c>
+      <c r="B227" t="s">
+        <v>302</v>
+      </c>
+      <c r="C227">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>303</v>
+      </c>
+      <c r="B228" t="s">
+        <v>304</v>
+      </c>
+      <c r="C228">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>286</v>
+      </c>
+      <c r="B229" t="s">
+        <v>305</v>
+      </c>
+      <c r="C229">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>287</v>
+      </c>
+      <c r="B230" t="s">
+        <v>306</v>
+      </c>
+      <c r="C230">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>288</v>
+      </c>
+      <c r="B231" t="s">
+        <v>307</v>
+      </c>
+      <c r="C231">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>308</v>
+      </c>
+      <c r="B232" t="s">
+        <v>325</v>
+      </c>
+      <c r="C232">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>310</v>
+      </c>
+      <c r="B233" t="s">
+        <v>326</v>
+      </c>
+      <c r="C233">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>311</v>
+      </c>
+      <c r="B234" t="s">
+        <v>327</v>
+      </c>
+      <c r="C234">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>309</v>
+      </c>
+      <c r="B235" t="s">
+        <v>328</v>
+      </c>
+      <c r="C235">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>312</v>
+      </c>
+      <c r="B236" t="s">
+        <v>329</v>
+      </c>
+      <c r="C236">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>313</v>
+      </c>
+      <c r="B237" t="s">
+        <v>330</v>
+      </c>
+      <c r="C237">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>314</v>
+      </c>
+      <c r="B238" t="s">
+        <v>331</v>
+      </c>
+      <c r="C238">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>315</v>
+      </c>
+      <c r="B239" t="s">
+        <v>332</v>
+      </c>
+      <c r="C239">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>316</v>
+      </c>
+      <c r="B240" t="s">
+        <v>333</v>
+      </c>
+      <c r="C240">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>317</v>
+      </c>
+      <c r="B241" t="s">
+        <v>334</v>
+      </c>
+      <c r="C241">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>318</v>
+      </c>
+      <c r="B242" t="s">
+        <v>335</v>
+      </c>
+      <c r="C242">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>319</v>
+      </c>
+      <c r="B243" t="s">
+        <v>336</v>
+      </c>
+      <c r="C243">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>320</v>
+      </c>
+      <c r="B244" t="s">
+        <v>337</v>
+      </c>
+      <c r="C244">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>321</v>
+      </c>
+      <c r="B245" t="s">
+        <v>338</v>
+      </c>
+      <c r="C245">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>322</v>
+      </c>
+      <c r="B246" t="s">
+        <v>339</v>
+      </c>
+      <c r="C246">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>323</v>
+      </c>
+      <c r="B247" t="s">
+        <v>340</v>
+      </c>
+      <c r="C247">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>324</v>
+      </c>
+      <c r="B248" t="s">
+        <v>341</v>
+      </c>
+      <c r="C248">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>342</v>
+      </c>
+      <c r="B249" t="s">
+        <v>366</v>
+      </c>
+      <c r="C249">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>343</v>
+      </c>
+      <c r="B250" t="s">
+        <v>367</v>
+      </c>
+      <c r="C250">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>344</v>
+      </c>
+      <c r="B251" t="s">
+        <v>368</v>
+      </c>
+      <c r="C251">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>345</v>
+      </c>
+      <c r="B252" t="s">
+        <v>369</v>
+      </c>
+      <c r="C252">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>346</v>
+      </c>
+      <c r="B253" t="s">
+        <v>370</v>
+      </c>
+      <c r="C253">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>347</v>
+      </c>
+      <c r="B254" t="s">
+        <v>371</v>
+      </c>
+      <c r="C254">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>348</v>
+      </c>
+      <c r="B255" t="s">
+        <v>372</v>
+      </c>
+      <c r="C255">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>349</v>
+      </c>
+      <c r="B256" t="s">
+        <v>373</v>
+      </c>
+      <c r="C256">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>350</v>
+      </c>
+      <c r="B257" t="s">
+        <v>374</v>
+      </c>
+      <c r="C257">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>351</v>
+      </c>
+      <c r="B258" t="s">
+        <v>375</v>
+      </c>
+      <c r="C258">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>352</v>
+      </c>
+      <c r="B259" t="s">
+        <v>376</v>
+      </c>
+      <c r="C259">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>353</v>
+      </c>
+      <c r="B260" t="s">
+        <v>377</v>
+      </c>
+      <c r="C260">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>354</v>
+      </c>
+      <c r="B261" t="s">
+        <v>378</v>
+      </c>
+      <c r="C261">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>355</v>
+      </c>
+      <c r="B262" t="s">
+        <v>379</v>
+      </c>
+      <c r="C262">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>356</v>
+      </c>
+      <c r="B263" t="s">
+        <v>380</v>
+      </c>
+      <c r="C263">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>489</v>
+      </c>
+      <c r="B264" t="s">
+        <v>381</v>
+      </c>
+      <c r="C264">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>358</v>
+      </c>
+      <c r="B265" t="s">
+        <v>382</v>
+      </c>
+      <c r="C265">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>359</v>
+      </c>
+      <c r="B266" t="s">
+        <v>383</v>
+      </c>
+      <c r="C266">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>360</v>
+      </c>
+      <c r="B267" t="s">
+        <v>384</v>
+      </c>
+      <c r="C267">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>361</v>
+      </c>
+      <c r="B268" t="s">
+        <v>385</v>
+      </c>
+      <c r="C268">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>362</v>
+      </c>
+      <c r="B269" t="s">
+        <v>386</v>
+      </c>
+      <c r="C269">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>363</v>
+      </c>
+      <c r="B270" t="s">
+        <v>387</v>
+      </c>
+      <c r="C270">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>364</v>
+      </c>
+      <c r="B271" t="s">
+        <v>388</v>
+      </c>
+      <c r="C271">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>365</v>
+      </c>
+      <c r="B272" t="s">
+        <v>389</v>
+      </c>
+      <c r="C272">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>390</v>
+      </c>
+      <c r="B273" t="s">
+        <v>413</v>
+      </c>
+      <c r="C273">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>397</v>
+      </c>
+      <c r="B274" t="s">
+        <v>414</v>
+      </c>
+      <c r="C274">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>391</v>
+      </c>
+      <c r="B275" t="s">
+        <v>415</v>
+      </c>
+      <c r="C275">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>392</v>
+      </c>
+      <c r="B276" t="s">
+        <v>416</v>
+      </c>
+      <c r="C276">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>393</v>
+      </c>
+      <c r="B277" t="s">
+        <v>417</v>
+      </c>
+      <c r="C277">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>394</v>
+      </c>
+      <c r="B278" t="s">
+        <v>418</v>
+      </c>
+      <c r="C278">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>395</v>
+      </c>
+      <c r="B279" t="s">
+        <v>419</v>
+      </c>
+      <c r="C279">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>396</v>
+      </c>
+      <c r="B280" t="s">
+        <v>420</v>
+      </c>
+      <c r="C280">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>398</v>
+      </c>
+      <c r="B281" t="s">
+        <v>421</v>
+      </c>
+      <c r="C281">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>399</v>
+      </c>
+      <c r="B282" t="s">
+        <v>422</v>
+      </c>
+      <c r="C282">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>400</v>
+      </c>
+      <c r="B283" t="s">
+        <v>423</v>
+      </c>
+      <c r="C283">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>401</v>
+      </c>
+      <c r="B284" t="s">
+        <v>424</v>
+      </c>
+      <c r="C284">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>402</v>
+      </c>
+      <c r="B285" t="s">
+        <v>425</v>
+      </c>
+      <c r="C285">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>403</v>
+      </c>
+      <c r="B286" t="s">
+        <v>426</v>
+      </c>
+      <c r="C286">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>130</v>
+      </c>
+      <c r="B287" t="s">
+        <v>427</v>
+      </c>
+      <c r="C287">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>404</v>
+      </c>
+      <c r="B288" t="s">
+        <v>428</v>
+      </c>
+      <c r="C288">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>405</v>
+      </c>
+      <c r="B289" t="s">
+        <v>429</v>
+      </c>
+      <c r="C289">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>406</v>
+      </c>
+      <c r="B290" t="s">
+        <v>430</v>
+      </c>
+      <c r="C290">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>407</v>
+      </c>
+      <c r="B291" t="s">
+        <v>431</v>
+      </c>
+      <c r="C291">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>408</v>
+      </c>
+      <c r="B292" t="s">
+        <v>432</v>
+      </c>
+      <c r="C292">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>409</v>
+      </c>
+      <c r="B293" t="s">
+        <v>433</v>
+      </c>
+      <c r="C293">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>410</v>
+      </c>
+      <c r="B294" t="s">
+        <v>434</v>
+      </c>
+      <c r="C294">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>411</v>
+      </c>
+      <c r="B295" t="s">
+        <v>435</v>
+      </c>
+      <c r="C295">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>412</v>
+      </c>
+      <c r="B296" t="s">
+        <v>436</v>
+      </c>
+      <c r="C296">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>437</v>
+      </c>
+      <c r="B297" t="s">
+        <v>454</v>
+      </c>
+      <c r="C297">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>438</v>
+      </c>
+      <c r="B298" t="s">
+        <v>455</v>
+      </c>
+      <c r="C298">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>439</v>
+      </c>
+      <c r="B299" t="s">
+        <v>456</v>
+      </c>
+      <c r="C299">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>440</v>
+      </c>
+      <c r="B300" t="s">
+        <v>457</v>
+      </c>
+      <c r="C300">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>441</v>
+      </c>
+      <c r="B301" t="s">
+        <v>458</v>
+      </c>
+      <c r="C301">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>442</v>
+      </c>
+      <c r="B302" t="s">
+        <v>459</v>
+      </c>
+      <c r="C302">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>443</v>
+      </c>
+      <c r="B303" t="s">
+        <v>460</v>
+      </c>
+      <c r="C303">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>444</v>
+      </c>
+      <c r="B304" t="s">
+        <v>461</v>
+      </c>
+      <c r="C304">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>445</v>
+      </c>
+      <c r="B305" t="s">
+        <v>462</v>
+      </c>
+      <c r="C305">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>446</v>
+      </c>
+      <c r="B306" t="s">
+        <v>463</v>
+      </c>
+      <c r="C306">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>447</v>
+      </c>
+      <c r="B307" t="s">
+        <v>464</v>
+      </c>
+      <c r="C307">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>448</v>
+      </c>
+      <c r="B308" t="s">
+        <v>465</v>
+      </c>
+      <c r="C308">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>449</v>
+      </c>
+      <c r="B309" t="s">
+        <v>466</v>
+      </c>
+      <c r="C309">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>450</v>
+      </c>
+      <c r="B310" t="s">
+        <v>467</v>
+      </c>
+      <c r="C310">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>451</v>
+      </c>
+      <c r="B311" t="s">
+        <v>330</v>
+      </c>
+      <c r="C311">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>452</v>
+      </c>
+      <c r="B312" t="s">
+        <v>468</v>
+      </c>
+      <c r="C312">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>453</v>
+      </c>
+      <c r="B313" t="s">
+        <v>469</v>
+      </c>
+      <c r="C313">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>470</v>
+      </c>
+      <c r="B314" t="s">
+        <v>490</v>
+      </c>
+      <c r="C314">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>471</v>
+      </c>
+      <c r="B315" t="s">
+        <v>491</v>
+      </c>
+      <c r="C315">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>472</v>
+      </c>
+      <c r="B316" t="s">
+        <v>492</v>
+      </c>
+      <c r="C316">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>473</v>
+      </c>
+      <c r="B317" t="s">
+        <v>493</v>
+      </c>
+      <c r="C317">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>474</v>
+      </c>
+      <c r="B318" t="s">
+        <v>494</v>
+      </c>
+      <c r="C318">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>475</v>
+      </c>
+      <c r="B319" t="s">
+        <v>495</v>
+      </c>
+      <c r="C319">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>476</v>
+      </c>
+      <c r="B320" t="s">
+        <v>496</v>
+      </c>
+      <c r="C320">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>477</v>
+      </c>
+      <c r="B321" t="s">
+        <v>497</v>
+      </c>
+      <c r="C321">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>478</v>
+      </c>
+      <c r="B322" t="s">
+        <v>498</v>
+      </c>
+      <c r="C322">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>479</v>
+      </c>
+      <c r="B323" t="s">
+        <v>499</v>
+      </c>
+      <c r="C323">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>480</v>
+      </c>
+      <c r="B324" t="s">
+        <v>500</v>
+      </c>
+      <c r="C324">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>481</v>
+      </c>
+      <c r="B325" t="s">
+        <v>501</v>
+      </c>
+      <c r="C325">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>482</v>
+      </c>
+      <c r="B326" t="s">
+        <v>502</v>
+      </c>
+      <c r="C326">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>483</v>
+      </c>
+      <c r="B327" t="s">
+        <v>503</v>
+      </c>
+      <c r="C327">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>484</v>
+      </c>
+      <c r="B328" t="s">
+        <v>504</v>
+      </c>
+      <c r="C328">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>485</v>
+      </c>
+      <c r="B329" t="s">
+        <v>505</v>
+      </c>
+      <c r="C329">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>486</v>
+      </c>
+      <c r="B330" t="s">
+        <v>506</v>
+      </c>
+      <c r="C330">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>357</v>
+      </c>
+      <c r="B331" t="s">
+        <v>507</v>
+      </c>
+      <c r="C331">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>487</v>
+      </c>
+      <c r="B332" t="s">
+        <v>508</v>
+      </c>
+      <c r="C332">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>488</v>
+      </c>
+      <c r="B333" t="s">
+        <v>509</v>
+      </c>
+      <c r="C333">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>510</v>
+      </c>
+      <c r="B334" t="s">
+        <v>528</v>
+      </c>
+      <c r="C334">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>511</v>
+      </c>
+      <c r="B335" t="s">
+        <v>529</v>
+      </c>
+      <c r="C335">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>512</v>
+      </c>
+      <c r="B336" t="s">
+        <v>530</v>
+      </c>
+      <c r="C336">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>513</v>
+      </c>
+      <c r="B337" t="s">
+        <v>531</v>
+      </c>
+      <c r="C337">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>514</v>
+      </c>
+      <c r="B338" t="s">
+        <v>532</v>
+      </c>
+      <c r="C338">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>515</v>
+      </c>
+      <c r="B339" t="s">
+        <v>533</v>
+      </c>
+      <c r="C339">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>516</v>
+      </c>
+      <c r="B340" t="s">
+        <v>534</v>
+      </c>
+      <c r="C340">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>517</v>
+      </c>
+      <c r="B341" t="s">
+        <v>535</v>
+      </c>
+      <c r="C341">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>518</v>
+      </c>
+      <c r="B342" t="s">
+        <v>536</v>
+      </c>
+      <c r="C342">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>519</v>
+      </c>
+      <c r="B343" t="s">
+        <v>537</v>
+      </c>
+      <c r="C343">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>520</v>
+      </c>
+      <c r="B344" t="s">
+        <v>538</v>
+      </c>
+      <c r="C344">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>521</v>
+      </c>
+      <c r="B345" t="s">
+        <v>539</v>
+      </c>
+      <c r="C345">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>522</v>
+      </c>
+      <c r="B346" t="s">
+        <v>540</v>
+      </c>
+      <c r="C346">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>523</v>
+      </c>
+      <c r="B347" t="s">
+        <v>541</v>
+      </c>
+      <c r="C347">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>524</v>
+      </c>
+      <c r="B348" t="s">
+        <v>542</v>
+      </c>
+      <c r="C348">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>525</v>
+      </c>
+      <c r="B349" t="s">
+        <v>543</v>
+      </c>
+      <c r="C349">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>526</v>
+      </c>
+      <c r="B350" t="s">
+        <v>544</v>
+      </c>
+      <c r="C350">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>527</v>
+      </c>
+      <c r="B351" t="s">
+        <v>545</v>
+      </c>
+      <c r="C351">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C351">
+    <sortCondition ref="C2:C351"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/vocab_modified.xlsx
+++ b/vocab_modified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn_Korean_App\Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89332937-5BD2-451C-967D-E788E4220027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EB9E9C-1A90-432B-81AE-31719CC89A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E38A29CB-43D3-46E8-AE9D-CFCFA45D12E4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="787">
   <si>
     <t>Đến</t>
   </si>
@@ -2055,6 +2055,348 @@
   </si>
   <si>
     <t>책을 읽다</t>
+  </si>
+  <si>
+    <t>Ông nội</t>
+  </si>
+  <si>
+    <t>Bà nội</t>
+  </si>
+  <si>
+    <t>Ông ngoại</t>
+  </si>
+  <si>
+    <t>Bà ngoại</t>
+  </si>
+  <si>
+    <t>Bố</t>
+  </si>
+  <si>
+    <t>Mẹ</t>
+  </si>
+  <si>
+    <t>Anh trai</t>
+  </si>
+  <si>
+    <t>Chị gái</t>
+  </si>
+  <si>
+    <t>Em gái</t>
+  </si>
+  <si>
+    <t>Em trai</t>
+  </si>
+  <si>
+    <t>Gia đình</t>
+  </si>
+  <si>
+    <t>할아버지</t>
+  </si>
+  <si>
+    <t>할머니</t>
+  </si>
+  <si>
+    <t>외할아버지</t>
+  </si>
+  <si>
+    <t>외할머니</t>
+  </si>
+  <si>
+    <t>아버지</t>
+  </si>
+  <si>
+    <t>어머니</t>
+  </si>
+  <si>
+    <t>오빠,형</t>
+  </si>
+  <si>
+    <t>언니,누나</t>
+  </si>
+  <si>
+    <t>여동생</t>
+  </si>
+  <si>
+    <t>남동생</t>
+  </si>
+  <si>
+    <t>가족</t>
+  </si>
+  <si>
+    <t>Giáo sư</t>
+  </si>
+  <si>
+    <t>Nghiên cứu sinh</t>
+  </si>
+  <si>
+    <t>Bộ đội</t>
+  </si>
+  <si>
+    <t>Doanh nhân</t>
+  </si>
+  <si>
+    <t>Luật sư</t>
+  </si>
+  <si>
+    <t>Cảnh sát</t>
+  </si>
+  <si>
+    <t>Thông dịch viên</t>
+  </si>
+  <si>
+    <t>Nông dân</t>
+  </si>
+  <si>
+    <t>Làm kinh doanh</t>
+  </si>
+  <si>
+    <t>Buôn bán</t>
+  </si>
+  <si>
+    <t>Đi công tác</t>
+  </si>
+  <si>
+    <t>교수</t>
+  </si>
+  <si>
+    <t>연구원</t>
+  </si>
+  <si>
+    <t>군인</t>
+  </si>
+  <si>
+    <t>사업가</t>
+  </si>
+  <si>
+    <t>변호사</t>
+  </si>
+  <si>
+    <t>경찰관</t>
+  </si>
+  <si>
+    <t>통역사</t>
+  </si>
+  <si>
+    <t>농부</t>
+  </si>
+  <si>
+    <t>사업을 하다</t>
+  </si>
+  <si>
+    <t>장사를 하다</t>
+  </si>
+  <si>
+    <t>출장을 하다</t>
+  </si>
+  <si>
+    <t>Cún con</t>
+  </si>
+  <si>
+    <t>Trở thành</t>
+  </si>
+  <si>
+    <t>Tuối (kính ngữ)</t>
+  </si>
+  <si>
+    <t>Lễ cưới</t>
+  </si>
+  <si>
+    <t>Dùng, ăn (kính ngữ)</t>
+  </si>
+  <si>
+    <t>Một cách chăm chỉ</t>
+  </si>
+  <si>
+    <t>Có, ở (kính ngữ)</t>
+  </si>
+  <si>
+    <t>Cô</t>
+  </si>
+  <si>
+    <t>Lời nói</t>
+  </si>
+  <si>
+    <t>Con gái duy nhất</t>
+  </si>
+  <si>
+    <t>Dượng (chồng của cô)</t>
+  </si>
+  <si>
+    <t>Nói (kính ngữ)</t>
+  </si>
+  <si>
+    <t>Con trai duy nhất</t>
+  </si>
+  <si>
+    <t>Con mèo</t>
+  </si>
+  <si>
+    <t>Vị, người (kính ngữ)</t>
+  </si>
+  <si>
+    <t>Trẻ mẫu giáo</t>
+  </si>
+  <si>
+    <t>Anh chị em họ</t>
+  </si>
+  <si>
+    <t>Chú, cậu</t>
+  </si>
+  <si>
+    <t>Học chuyên ngành</t>
+  </si>
+  <si>
+    <t>Gần</t>
+  </si>
+  <si>
+    <t>Sinh nhật (kính ngữ)</t>
+  </si>
+  <si>
+    <t>Ngủ (kính ngữ)</t>
+  </si>
+  <si>
+    <t>Sau này</t>
+  </si>
+  <si>
+    <t>Tên, danh tính (kính ngữ)</t>
+  </si>
+  <si>
+    <t>Cơm (kính ngữ)</t>
+  </si>
+  <si>
+    <t>Đại gia đình</t>
+  </si>
+  <si>
+    <t>Rượu</t>
+  </si>
+  <si>
+    <t>Học sinh tiểu học</t>
+  </si>
+  <si>
+    <t>Nhà (kính ngữ)</t>
+  </si>
+  <si>
+    <t>Vợ</t>
+  </si>
+  <si>
+    <t>Bác trai</t>
+  </si>
+  <si>
+    <t>Quay lại, trở về, qua đời</t>
+  </si>
+  <si>
+    <t>Con trai</t>
+  </si>
+  <si>
+    <t>Bác gái</t>
+  </si>
+  <si>
+    <t>강아지</t>
+  </si>
+  <si>
+    <t>되다</t>
+  </si>
+  <si>
+    <t>연세</t>
+  </si>
+  <si>
+    <t>결혼식</t>
+  </si>
+  <si>
+    <t>열심히</t>
+  </si>
+  <si>
+    <t>계시다</t>
+  </si>
+  <si>
+    <t>딸</t>
+  </si>
+  <si>
+    <t>Con gái</t>
+  </si>
+  <si>
+    <t>울해</t>
+  </si>
+  <si>
+    <t>고모</t>
+  </si>
+  <si>
+    <t>말씀</t>
+  </si>
+  <si>
+    <t>외동딸</t>
+  </si>
+  <si>
+    <t>고모부</t>
+  </si>
+  <si>
+    <t>말씀하시다</t>
+  </si>
+  <si>
+    <t>외아들</t>
+  </si>
+  <si>
+    <t>고양이</t>
+  </si>
+  <si>
+    <t>유차원생</t>
+  </si>
+  <si>
+    <t>사촌</t>
+  </si>
+  <si>
+    <t>근무</t>
+  </si>
+  <si>
+    <t>삼촌</t>
+  </si>
+  <si>
+    <t>전공하다</t>
+  </si>
+  <si>
+    <t>근처</t>
+  </si>
+  <si>
+    <t>생신</t>
+  </si>
+  <si>
+    <t>주무시다</t>
+  </si>
+  <si>
+    <t>나중에</t>
+  </si>
+  <si>
+    <t>성함</t>
+  </si>
+  <si>
+    <t>진지</t>
+  </si>
+  <si>
+    <t>대가족</t>
+  </si>
+  <si>
+    <t>술</t>
+  </si>
+  <si>
+    <t>초등학생</t>
+  </si>
+  <si>
+    <t>댁</t>
+  </si>
+  <si>
+    <t>아내</t>
+  </si>
+  <si>
+    <t>큰아버지</t>
+  </si>
+  <si>
+    <t>돌아가시다</t>
+  </si>
+  <si>
+    <t>아들</t>
+  </si>
+  <si>
+    <t>큰어머니</t>
   </si>
 </sst>
 </file>
@@ -2450,10 +2792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240C80E1-0877-49F4-B213-880C20497FE1}">
-  <dimension ref="A1:C351"/>
+  <dimension ref="A1:C410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="B309" sqref="B309"/>
+    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="F406" sqref="F406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6323,6 +6665,655 @@
         <v>9</v>
       </c>
     </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>673</v>
+      </c>
+      <c r="B352" t="s">
+        <v>684</v>
+      </c>
+      <c r="C352">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>674</v>
+      </c>
+      <c r="B353" t="s">
+        <v>685</v>
+      </c>
+      <c r="C353">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>675</v>
+      </c>
+      <c r="B354" t="s">
+        <v>686</v>
+      </c>
+      <c r="C354">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>676</v>
+      </c>
+      <c r="B355" t="s">
+        <v>687</v>
+      </c>
+      <c r="C355">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>677</v>
+      </c>
+      <c r="B356" t="s">
+        <v>688</v>
+      </c>
+      <c r="C356">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>678</v>
+      </c>
+      <c r="B357" t="s">
+        <v>689</v>
+      </c>
+      <c r="C357">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>679</v>
+      </c>
+      <c r="B358" t="s">
+        <v>690</v>
+      </c>
+      <c r="C358">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>680</v>
+      </c>
+      <c r="B359" t="s">
+        <v>691</v>
+      </c>
+      <c r="C359">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>681</v>
+      </c>
+      <c r="B360" t="s">
+        <v>692</v>
+      </c>
+      <c r="C360">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>682</v>
+      </c>
+      <c r="B361" t="s">
+        <v>693</v>
+      </c>
+      <c r="C361">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>683</v>
+      </c>
+      <c r="B362" t="s">
+        <v>694</v>
+      </c>
+      <c r="C362">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>695</v>
+      </c>
+      <c r="B363" t="s">
+        <v>706</v>
+      </c>
+      <c r="C363">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>696</v>
+      </c>
+      <c r="B364" t="s">
+        <v>707</v>
+      </c>
+      <c r="C364">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>697</v>
+      </c>
+      <c r="B365" t="s">
+        <v>708</v>
+      </c>
+      <c r="C365">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>698</v>
+      </c>
+      <c r="B366" t="s">
+        <v>709</v>
+      </c>
+      <c r="C366">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>699</v>
+      </c>
+      <c r="B367" t="s">
+        <v>710</v>
+      </c>
+      <c r="C367">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>700</v>
+      </c>
+      <c r="B368" t="s">
+        <v>711</v>
+      </c>
+      <c r="C368">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>701</v>
+      </c>
+      <c r="B369" t="s">
+        <v>712</v>
+      </c>
+      <c r="C369">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>702</v>
+      </c>
+      <c r="B370" t="s">
+        <v>713</v>
+      </c>
+      <c r="C370">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>703</v>
+      </c>
+      <c r="B371" t="s">
+        <v>714</v>
+      </c>
+      <c r="C371">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>704</v>
+      </c>
+      <c r="B372" t="s">
+        <v>715</v>
+      </c>
+      <c r="C372">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>705</v>
+      </c>
+      <c r="B373" t="s">
+        <v>716</v>
+      </c>
+      <c r="C373">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>717</v>
+      </c>
+      <c r="B374" t="s">
+        <v>751</v>
+      </c>
+      <c r="C374">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>718</v>
+      </c>
+      <c r="B375" t="s">
+        <v>752</v>
+      </c>
+      <c r="C375">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>719</v>
+      </c>
+      <c r="B376" t="s">
+        <v>753</v>
+      </c>
+      <c r="C376">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>720</v>
+      </c>
+      <c r="B377" t="s">
+        <v>754</v>
+      </c>
+      <c r="C377">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>721</v>
+      </c>
+      <c r="B378" t="s">
+        <v>427</v>
+      </c>
+      <c r="C378">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>722</v>
+      </c>
+      <c r="B379" t="s">
+        <v>755</v>
+      </c>
+      <c r="C379">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>723</v>
+      </c>
+      <c r="B380" t="s">
+        <v>756</v>
+      </c>
+      <c r="C380">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>758</v>
+      </c>
+      <c r="B381" t="s">
+        <v>757</v>
+      </c>
+      <c r="C381">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>104</v>
+      </c>
+      <c r="B382" t="s">
+        <v>759</v>
+      </c>
+      <c r="C382">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>724</v>
+      </c>
+      <c r="B383" t="s">
+        <v>760</v>
+      </c>
+      <c r="C383">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>725</v>
+      </c>
+      <c r="B384" t="s">
+        <v>761</v>
+      </c>
+      <c r="C384">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>726</v>
+      </c>
+      <c r="B385" t="s">
+        <v>762</v>
+      </c>
+      <c r="C385">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>727</v>
+      </c>
+      <c r="B386" t="s">
+        <v>763</v>
+      </c>
+      <c r="C386">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>728</v>
+      </c>
+      <c r="B387" t="s">
+        <v>764</v>
+      </c>
+      <c r="C387">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>729</v>
+      </c>
+      <c r="B388" t="s">
+        <v>765</v>
+      </c>
+      <c r="C388">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>730</v>
+      </c>
+      <c r="B389" t="s">
+        <v>766</v>
+      </c>
+      <c r="C389">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>731</v>
+      </c>
+      <c r="B390" t="s">
+        <v>205</v>
+      </c>
+      <c r="C390">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>732</v>
+      </c>
+      <c r="B391" t="s">
+        <v>767</v>
+      </c>
+      <c r="C391">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>733</v>
+      </c>
+      <c r="B392" t="s">
+        <v>768</v>
+      </c>
+      <c r="C392">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>16</v>
+      </c>
+      <c r="B393" t="s">
+        <v>769</v>
+      </c>
+      <c r="C393">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>734</v>
+      </c>
+      <c r="B394" t="s">
+        <v>770</v>
+      </c>
+      <c r="C394">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>735</v>
+      </c>
+      <c r="B395" t="s">
+        <v>771</v>
+      </c>
+      <c r="C395">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>736</v>
+      </c>
+      <c r="B396" t="s">
+        <v>772</v>
+      </c>
+      <c r="C396">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>737</v>
+      </c>
+      <c r="B397" t="s">
+        <v>773</v>
+      </c>
+      <c r="C397">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>738</v>
+      </c>
+      <c r="B398" t="s">
+        <v>774</v>
+      </c>
+      <c r="C398">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>739</v>
+      </c>
+      <c r="B399" t="s">
+        <v>775</v>
+      </c>
+      <c r="C399">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>740</v>
+      </c>
+      <c r="B400" t="s">
+        <v>776</v>
+      </c>
+      <c r="C400">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>741</v>
+      </c>
+      <c r="B401" t="s">
+        <v>777</v>
+      </c>
+      <c r="C401">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>742</v>
+      </c>
+      <c r="B402" t="s">
+        <v>778</v>
+      </c>
+      <c r="C402">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>743</v>
+      </c>
+      <c r="B403" t="s">
+        <v>779</v>
+      </c>
+      <c r="C403">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>744</v>
+      </c>
+      <c r="B404" t="s">
+        <v>780</v>
+      </c>
+      <c r="C404">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>745</v>
+      </c>
+      <c r="B405" t="s">
+        <v>781</v>
+      </c>
+      <c r="C405">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>746</v>
+      </c>
+      <c r="B406" t="s">
+        <v>782</v>
+      </c>
+      <c r="C406">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>747</v>
+      </c>
+      <c r="B407" t="s">
+        <v>783</v>
+      </c>
+      <c r="C407">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>748</v>
+      </c>
+      <c r="B408" t="s">
+        <v>784</v>
+      </c>
+      <c r="C408">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>749</v>
+      </c>
+      <c r="B409" t="s">
+        <v>785</v>
+      </c>
+      <c r="C409">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>750</v>
+      </c>
+      <c r="B410" t="s">
+        <v>786</v>
+      </c>
+      <c r="C410">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C351">
     <sortCondition ref="C2:C351"/>
@@ -6332,6 +7323,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9d95c8ba-3e5d-4f53-814d-d691e039df1d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100FC436295698E144A9E798C2245024E42" ma:contentTypeVersion="11" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a1ebd2982463e2a593ceb38fd3123b48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9d95c8ba-3e5d-4f53-814d-d691e039df1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95c83aafbe2550b6dfd225d4845f04ca" ns3:_="">
     <xsd:import namespace="9d95c8ba-3e5d-4f53-814d-d691e039df1d"/>
@@ -6519,24 +7527,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B10BEE-105A-4543-AC92-D9C20511CEC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="9d95c8ba-3e5d-4f53-814d-d691e039df1d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9d95c8ba-3e5d-4f53-814d-d691e039df1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59FD1898-BA9A-455F-AE38-48973A5DE731}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A602C9-BC44-4A90-8B17-A240691AFFFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6552,28 +7567,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59FD1898-BA9A-455F-AE38-48973A5DE731}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B10BEE-105A-4543-AC92-D9C20511CEC6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="9d95c8ba-3e5d-4f53-814d-d691e039df1d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/vocab_modified.xlsx
+++ b/vocab_modified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn_Korean_App\Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EB9E9C-1A90-432B-81AE-31719CC89A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B140D0A2-1487-4B89-8F87-570D802E73FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E38A29CB-43D3-46E8-AE9D-CFCFA45D12E4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="788">
   <si>
     <t>Đến</t>
   </si>
@@ -431,9 +431,6 @@
     <t>Dùng bữa</t>
   </si>
   <si>
-    <t>식샇사다</t>
-  </si>
-  <si>
     <t>Thường xuyên</t>
   </si>
   <si>
@@ -539,9 +536,6 @@
     <t>Làm thêm</t>
   </si>
   <si>
-    <t>아리바이트</t>
-  </si>
-  <si>
     <t>Leo núi</t>
   </si>
   <si>
@@ -1289,9 +1283,6 @@
     <t>보통</t>
   </si>
   <si>
-    <t>그개서</t>
-  </si>
-  <si>
     <t>기다리다</t>
   </si>
   <si>
@@ -1922,9 +1913,6 @@
     <t>운동장</t>
   </si>
   <si>
-    <t>가당</t>
-  </si>
-  <si>
     <t>세미나실</t>
   </si>
   <si>
@@ -2051,9 +2039,6 @@
     <t>산책하다</t>
   </si>
   <si>
-    <t>소퐁가다</t>
-  </si>
-  <si>
     <t>책을 읽다</t>
   </si>
   <si>
@@ -2397,6 +2382,24 @@
   </si>
   <si>
     <t>큰어머니</t>
+  </si>
+  <si>
+    <t>강당</t>
+  </si>
+  <si>
+    <t>베우다,공부 하다</t>
+  </si>
+  <si>
+    <t>식사하다</t>
+  </si>
+  <si>
+    <t>아르바이트</t>
+  </si>
+  <si>
+    <t>소풍가다</t>
+  </si>
+  <si>
+    <t>그래서</t>
   </si>
 </sst>
 </file>
@@ -2794,33 +2797,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240C80E1-0877-49F4-B213-880C20497FE1}">
   <dimension ref="A1:C410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="F406" sqref="F406"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="D281" sqref="D281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2828,10 +2831,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2839,10 +2842,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2850,10 +2853,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2861,10 +2864,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2872,10 +2875,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2883,10 +2886,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B8" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2894,10 +2897,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B9" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2905,10 +2908,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B10" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2916,10 +2919,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2927,10 +2930,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B12" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2938,10 +2941,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B13" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2949,10 +2952,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B14" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2960,10 +2963,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B15" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2971,10 +2974,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B16" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2982,10 +2985,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B17" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2993,10 +2996,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B18" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3004,10 +3007,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B19" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3015,10 +3018,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B20" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -3026,10 +3029,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B21" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3037,10 +3040,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B22" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3048,10 +3051,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B23" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3059,10 +3062,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B24" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3070,10 +3073,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B25" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3081,10 +3084,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B26" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -3092,10 +3095,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B27" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -3103,10 +3106,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B28" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -3114,10 +3117,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B29" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -3125,10 +3128,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B30" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -3136,10 +3139,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B31" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -3147,10 +3150,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B32" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -3158,10 +3161,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B33" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -3169,10 +3172,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B34" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -3180,10 +3183,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B35" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -3191,10 +3194,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B36" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -3202,10 +3205,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B37" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -3213,10 +3216,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B38" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -3224,10 +3227,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B39" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -3235,10 +3238,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B40" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -3246,10 +3249,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B41" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -3257,10 +3260,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B42" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -3268,10 +3271,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B43" t="s">
-        <v>628</v>
+        <v>782</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -3279,10 +3282,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B44" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -3290,10 +3293,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B45" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -3301,10 +3304,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B46" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -3312,10 +3315,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B47" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -3323,10 +3326,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B48" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -3334,10 +3337,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B49" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -3345,10 +3348,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B50" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -3356,10 +3359,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B51" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -3367,10 +3370,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B52" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -3378,10 +3381,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B53" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -3389,10 +3392,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B54" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -3400,10 +3403,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B55" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -3411,10 +3414,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B56" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -3422,10 +3425,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B57" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -3433,10 +3436,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B58" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -3444,10 +3447,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B59" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -3557,7 +3560,7 @@
         <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>783</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -4173,7 +4176,7 @@
         <v>130</v>
       </c>
       <c r="B125" t="s">
-        <v>131</v>
+        <v>784</v>
       </c>
       <c r="C125">
         <v>4</v>
@@ -4181,10 +4184,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126" t="s">
         <v>132</v>
-      </c>
-      <c r="B126" t="s">
-        <v>133</v>
       </c>
       <c r="C126">
         <v>4</v>
@@ -4192,10 +4195,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="s">
         <v>134</v>
-      </c>
-      <c r="B127" t="s">
-        <v>135</v>
       </c>
       <c r="C127">
         <v>4</v>
@@ -4203,10 +4206,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" t="s">
         <v>136</v>
-      </c>
-      <c r="B128" t="s">
-        <v>137</v>
       </c>
       <c r="C128">
         <v>4</v>
@@ -4214,10 +4217,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129" t="s">
         <v>138</v>
-      </c>
-      <c r="B129" t="s">
-        <v>139</v>
       </c>
       <c r="C129">
         <v>4</v>
@@ -4225,10 +4228,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>139</v>
+      </c>
+      <c r="B130" t="s">
         <v>140</v>
-      </c>
-      <c r="B130" t="s">
-        <v>141</v>
       </c>
       <c r="C130">
         <v>4</v>
@@ -4236,10 +4239,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131" t="s">
         <v>142</v>
-      </c>
-      <c r="B131" t="s">
-        <v>143</v>
       </c>
       <c r="C131">
         <v>4</v>
@@ -4247,10 +4250,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" t="s">
         <v>144</v>
-      </c>
-      <c r="B132" t="s">
-        <v>145</v>
       </c>
       <c r="C132">
         <v>4</v>
@@ -4258,10 +4261,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" t="s">
         <v>146</v>
-      </c>
-      <c r="B133" t="s">
-        <v>147</v>
       </c>
       <c r="C133">
         <v>4</v>
@@ -4269,10 +4272,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>147</v>
+      </c>
+      <c r="B134" t="s">
         <v>148</v>
-      </c>
-      <c r="B134" t="s">
-        <v>149</v>
       </c>
       <c r="C134">
         <v>4</v>
@@ -4280,10 +4283,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>149</v>
+      </c>
+      <c r="B135" t="s">
         <v>150</v>
-      </c>
-      <c r="B135" t="s">
-        <v>151</v>
       </c>
       <c r="C135">
         <v>4</v>
@@ -4291,10 +4294,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>151</v>
+      </c>
+      <c r="B136" t="s">
         <v>152</v>
-      </c>
-      <c r="B136" t="s">
-        <v>153</v>
       </c>
       <c r="C136">
         <v>4</v>
@@ -4302,10 +4305,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>153</v>
+      </c>
+      <c r="B137" t="s">
         <v>154</v>
-      </c>
-      <c r="B137" t="s">
-        <v>155</v>
       </c>
       <c r="C137">
         <v>4</v>
@@ -4313,10 +4316,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>155</v>
+      </c>
+      <c r="B138" t="s">
         <v>156</v>
-      </c>
-      <c r="B138" t="s">
-        <v>157</v>
       </c>
       <c r="C138">
         <v>4</v>
@@ -4324,10 +4327,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>157</v>
+      </c>
+      <c r="B139" t="s">
         <v>158</v>
-      </c>
-      <c r="B139" t="s">
-        <v>159</v>
       </c>
       <c r="C139">
         <v>4</v>
@@ -4335,10 +4338,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>159</v>
+      </c>
+      <c r="B140" t="s">
         <v>160</v>
-      </c>
-      <c r="B140" t="s">
-        <v>161</v>
       </c>
       <c r="C140">
         <v>4</v>
@@ -4346,10 +4349,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>161</v>
+      </c>
+      <c r="B141" t="s">
         <v>162</v>
-      </c>
-      <c r="B141" t="s">
-        <v>163</v>
       </c>
       <c r="C141">
         <v>4</v>
@@ -4357,10 +4360,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>163</v>
+      </c>
+      <c r="B142" t="s">
         <v>164</v>
-      </c>
-      <c r="B142" t="s">
-        <v>165</v>
       </c>
       <c r="C142">
         <v>4</v>
@@ -4368,10 +4371,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B143" t="s">
-        <v>167</v>
+        <v>785</v>
       </c>
       <c r="C143">
         <v>4</v>
@@ -4379,10 +4382,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B144" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C144">
         <v>4</v>
@@ -4390,10 +4393,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B145" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C145">
         <v>4</v>
@@ -4401,10 +4404,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B146" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C146">
         <v>4</v>
@@ -4412,10 +4415,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B147" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C147">
         <v>4</v>
@@ -4423,10 +4426,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B148" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C148">
         <v>4</v>
@@ -4434,10 +4437,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B149" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C149">
         <v>4</v>
@@ -4445,10 +4448,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B150" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C150">
         <v>4</v>
@@ -4456,10 +4459,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B151" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C151">
         <v>4</v>
@@ -4467,10 +4470,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B152" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C152">
         <v>4</v>
@@ -4478,10 +4481,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B153" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C153">
         <v>4</v>
@@ -4489,10 +4492,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B154" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C154">
         <v>5</v>
@@ -4500,10 +4503,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B155" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C155">
         <v>5</v>
@@ -4511,10 +4514,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B156" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C156">
         <v>5</v>
@@ -4522,10 +4525,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B157" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C157">
         <v>5</v>
@@ -4533,10 +4536,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B158" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C158">
         <v>5</v>
@@ -4544,10 +4547,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B159" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C159">
         <v>5</v>
@@ -4555,10 +4558,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B160" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C160">
         <v>5</v>
@@ -4566,10 +4569,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B161" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C161">
         <v>5</v>
@@ -4588,10 +4591,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B163" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C163">
         <v>5</v>
@@ -4599,10 +4602,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B164" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C164">
         <v>5</v>
@@ -4610,10 +4613,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B165" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C165">
         <v>5</v>
@@ -4621,10 +4624,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B166" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C166">
         <v>5</v>
@@ -4632,10 +4635,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B167" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C167">
         <v>5</v>
@@ -4654,7 +4657,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B169" t="s">
         <v>15</v>
@@ -4665,10 +4668,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B170" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C170">
         <v>5</v>
@@ -4687,10 +4690,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B172" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C172">
         <v>5</v>
@@ -4698,10 +4701,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B173" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C173">
         <v>5</v>
@@ -4709,10 +4712,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B174" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C174">
         <v>5</v>
@@ -4720,10 +4723,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B175" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C175">
         <v>5</v>
@@ -4731,10 +4734,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B176" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C176">
         <v>5</v>
@@ -4742,10 +4745,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B177" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C177">
         <v>5</v>
@@ -4753,10 +4756,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B178" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C178">
         <v>5</v>
@@ -4775,10 +4778,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B180" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C180">
         <v>5</v>
@@ -4786,10 +4789,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B181" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C181">
         <v>5</v>
@@ -4797,10 +4800,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B182" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C182">
         <v>5</v>
@@ -4808,10 +4811,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B183" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C183">
         <v>5</v>
@@ -4819,10 +4822,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B184" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C184">
         <v>5</v>
@@ -4830,10 +4833,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B185" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C185">
         <v>5</v>
@@ -4841,10 +4844,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B186" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C186">
         <v>5</v>
@@ -4852,10 +4855,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B187" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C187">
         <v>5</v>
@@ -4863,10 +4866,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B188" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C188">
         <v>5</v>
@@ -4885,10 +4888,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B190" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C190">
         <v>5</v>
@@ -4896,10 +4899,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B191" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C191">
         <v>5</v>
@@ -4907,10 +4910,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B192" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C192">
         <v>5</v>
@@ -4918,10 +4921,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B193" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C193">
         <v>5</v>
@@ -4929,10 +4932,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B194" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C194">
         <v>5</v>
@@ -4940,10 +4943,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B195" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C195">
         <v>5</v>
@@ -4951,10 +4954,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B196" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C196">
         <v>5</v>
@@ -4962,10 +4965,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B197" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C197">
         <v>5</v>
@@ -4973,10 +4976,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B198" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C198">
         <v>5</v>
@@ -4984,10 +4987,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B199" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C199">
         <v>5</v>
@@ -4995,10 +4998,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B200" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C200">
         <v>5</v>
@@ -5006,10 +5009,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B201" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C201">
         <v>5</v>
@@ -5017,10 +5020,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B202" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C202">
         <v>6</v>
@@ -5028,10 +5031,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B203" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C203">
         <v>6</v>
@@ -5050,10 +5053,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>143</v>
+      </c>
+      <c r="B205" t="s">
         <v>144</v>
-      </c>
-      <c r="B205" t="s">
-        <v>145</v>
       </c>
       <c r="C205">
         <v>6</v>
@@ -5061,10 +5064,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>145</v>
+      </c>
+      <c r="B206" t="s">
         <v>146</v>
-      </c>
-      <c r="B206" t="s">
-        <v>147</v>
       </c>
       <c r="C206">
         <v>6</v>
@@ -5072,10 +5075,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B207" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C207">
         <v>6</v>
@@ -5083,10 +5086,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B208" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C208">
         <v>6</v>
@@ -5094,10 +5097,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B209" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C209">
         <v>6</v>
@@ -5105,10 +5108,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B210" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C210">
         <v>6</v>
@@ -5116,10 +5119,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B211" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C211">
         <v>6</v>
@@ -5127,10 +5130,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B212" t="s">
-        <v>671</v>
+        <v>786</v>
       </c>
       <c r="C212">
         <v>6</v>
@@ -5138,10 +5141,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B213" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C213">
         <v>6</v>
@@ -5149,10 +5152,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B214" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C214">
         <v>7</v>
@@ -5160,10 +5163,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B215" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C215">
         <v>7</v>
@@ -5171,10 +5174,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B216" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C216">
         <v>7</v>
@@ -5182,10 +5185,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B217" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C217">
         <v>7</v>
@@ -5193,10 +5196,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B218" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C218">
         <v>7</v>
@@ -5204,10 +5207,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B219" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C219">
         <v>7</v>
@@ -5215,10 +5218,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B220" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C220">
         <v>7</v>
@@ -5226,10 +5229,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B221" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C221">
         <v>7</v>
@@ -5237,10 +5240,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B222" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C222">
         <v>7</v>
@@ -5248,10 +5251,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B223" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C223">
         <v>7</v>
@@ -5259,10 +5262,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B224" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C224">
         <v>7</v>
@@ -5270,10 +5273,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B225" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C225">
         <v>7</v>
@@ -5281,10 +5284,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B226" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C226">
         <v>7</v>
@@ -5292,10 +5295,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B227" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C227">
         <v>7</v>
@@ -5303,10 +5306,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B228" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C228">
         <v>7</v>
@@ -5314,10 +5317,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B229" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C229">
         <v>7</v>
@@ -5325,10 +5328,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B230" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C230">
         <v>7</v>
@@ -5336,10 +5339,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B231" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C231">
         <v>7</v>
@@ -5347,10 +5350,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B232" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C232">
         <v>7</v>
@@ -5358,10 +5361,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B233" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C233">
         <v>7</v>
@@ -5369,10 +5372,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B234" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C234">
         <v>7</v>
@@ -5380,10 +5383,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B235" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C235">
         <v>7</v>
@@ -5391,10 +5394,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B236" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C236">
         <v>7</v>
@@ -5402,10 +5405,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B237" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C237">
         <v>7</v>
@@ -5413,10 +5416,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B238" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C238">
         <v>7</v>
@@ -5424,10 +5427,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B239" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C239">
         <v>7</v>
@@ -5435,10 +5438,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B240" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C240">
         <v>7</v>
@@ -5446,10 +5449,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B241" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C241">
         <v>7</v>
@@ -5457,10 +5460,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B242" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C242">
         <v>7</v>
@@ -5468,10 +5471,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B243" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C243">
         <v>7</v>
@@ -5479,10 +5482,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B244" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C244">
         <v>7</v>
@@ -5490,10 +5493,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B245" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C245">
         <v>7</v>
@@ -5501,10 +5504,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B246" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C246">
         <v>7</v>
@@ -5512,10 +5515,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B247" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C247">
         <v>7</v>
@@ -5523,10 +5526,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B248" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C248">
         <v>7</v>
@@ -5534,10 +5537,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B249" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C249">
         <v>8</v>
@@ -5545,10 +5548,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B250" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C250">
         <v>8</v>
@@ -5556,10 +5559,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B251" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C251">
         <v>8</v>
@@ -5567,10 +5570,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B252" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C252">
         <v>8</v>
@@ -5578,10 +5581,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B253" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C253">
         <v>8</v>
@@ -5589,10 +5592,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B254" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C254">
         <v>8</v>
@@ -5600,10 +5603,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B255" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C255">
         <v>8</v>
@@ -5611,10 +5614,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B256" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C256">
         <v>8</v>
@@ -5622,10 +5625,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B257" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C257">
         <v>8</v>
@@ -5633,10 +5636,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B258" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C258">
         <v>8</v>
@@ -5644,10 +5647,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B259" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C259">
         <v>8</v>
@@ -5655,10 +5658,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B260" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C260">
         <v>8</v>
@@ -5666,10 +5669,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B261" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C261">
         <v>8</v>
@@ -5677,10 +5680,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B262" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C262">
         <v>8</v>
@@ -5688,10 +5691,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B263" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C263">
         <v>8</v>
@@ -5699,10 +5702,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B264" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C264">
         <v>8</v>
@@ -5710,10 +5713,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B265" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C265">
         <v>8</v>
@@ -5721,10 +5724,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B266" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C266">
         <v>8</v>
@@ -5732,10 +5735,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B267" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C267">
         <v>8</v>
@@ -5743,10 +5746,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B268" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C268">
         <v>8</v>
@@ -5754,10 +5757,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B269" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C269">
         <v>8</v>
@@ -5765,10 +5768,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B270" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C270">
         <v>8</v>
@@ -5776,10 +5779,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B271" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C271">
         <v>8</v>
@@ -5787,10 +5790,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B272" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C272">
         <v>8</v>
@@ -5798,10 +5801,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B273" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C273">
         <v>8</v>
@@ -5809,10 +5812,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B274" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C274">
         <v>8</v>
@@ -5820,10 +5823,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B275" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C275">
         <v>8</v>
@@ -5831,10 +5834,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B276" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C276">
         <v>8</v>
@@ -5842,10 +5845,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B277" t="s">
-        <v>417</v>
+        <v>787</v>
       </c>
       <c r="C277">
         <v>8</v>
@@ -5853,10 +5856,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B278" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C278">
         <v>8</v>
@@ -5864,10 +5867,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B279" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C279">
         <v>8</v>
@@ -5875,10 +5878,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B280" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C280">
         <v>8</v>
@@ -5886,10 +5889,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B281" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C281">
         <v>8</v>
@@ -5897,10 +5900,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B282" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C282">
         <v>8</v>
@@ -5908,10 +5911,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B283" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C283">
         <v>8</v>
@@ -5919,10 +5922,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B284" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C284">
         <v>8</v>
@@ -5930,10 +5933,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B285" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C285">
         <v>8</v>
@@ -5941,10 +5944,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B286" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C286">
         <v>8</v>
@@ -5955,7 +5958,7 @@
         <v>130</v>
       </c>
       <c r="B287" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C287">
         <v>8</v>
@@ -5963,10 +5966,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B288" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C288">
         <v>8</v>
@@ -5974,10 +5977,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B289" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C289">
         <v>8</v>
@@ -5985,10 +5988,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B290" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C290">
         <v>8</v>
@@ -5996,10 +5999,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B291" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C291">
         <v>8</v>
@@ -6007,10 +6010,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B292" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C292">
         <v>8</v>
@@ -6018,10 +6021,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B293" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C293">
         <v>8</v>
@@ -6029,10 +6032,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B294" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C294">
         <v>8</v>
@@ -6040,10 +6043,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B295" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C295">
         <v>8</v>
@@ -6051,10 +6054,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B296" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C296">
         <v>8</v>
@@ -6062,10 +6065,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B297" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C297">
         <v>9</v>
@@ -6073,10 +6076,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B298" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C298">
         <v>9</v>
@@ -6084,10 +6087,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B299" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C299">
         <v>9</v>
@@ -6095,10 +6098,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B300" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C300">
         <v>9</v>
@@ -6106,10 +6109,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B301" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C301">
         <v>9</v>
@@ -6117,10 +6120,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B302" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C302">
         <v>9</v>
@@ -6128,10 +6131,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B303" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C303">
         <v>9</v>
@@ -6139,10 +6142,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B304" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C304">
         <v>9</v>
@@ -6150,10 +6153,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B305" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C305">
         <v>9</v>
@@ -6161,10 +6164,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B306" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C306">
         <v>9</v>
@@ -6172,10 +6175,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B307" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C307">
         <v>9</v>
@@ -6183,10 +6186,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B308" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C308">
         <v>9</v>
@@ -6194,10 +6197,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B309" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C309">
         <v>9</v>
@@ -6205,10 +6208,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B310" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C310">
         <v>9</v>
@@ -6216,10 +6219,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B311" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C311">
         <v>9</v>
@@ -6227,10 +6230,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B312" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C312">
         <v>9</v>
@@ -6238,10 +6241,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B313" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C313">
         <v>9</v>
@@ -6249,10 +6252,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B314" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C314">
         <v>9</v>
@@ -6260,10 +6263,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B315" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C315">
         <v>9</v>
@@ -6271,10 +6274,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B316" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C316">
         <v>9</v>
@@ -6282,10 +6285,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B317" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C317">
         <v>9</v>
@@ -6293,10 +6296,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B318" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C318">
         <v>9</v>
@@ -6304,10 +6307,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B319" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C319">
         <v>9</v>
@@ -6315,10 +6318,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B320" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C320">
         <v>9</v>
@@ -6326,10 +6329,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B321" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C321">
         <v>9</v>
@@ -6337,10 +6340,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B322" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C322">
         <v>9</v>
@@ -6348,10 +6351,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B323" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C323">
         <v>9</v>
@@ -6359,10 +6362,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B324" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C324">
         <v>9</v>
@@ -6370,10 +6373,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B325" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C325">
         <v>9</v>
@@ -6381,10 +6384,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B326" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C326">
         <v>9</v>
@@ -6392,10 +6395,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B327" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C327">
         <v>9</v>
@@ -6403,10 +6406,10 @@
     </row>
     <row r="328" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B328" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C328">
         <v>9</v>
@@ -6414,10 +6417,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B329" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C329">
         <v>9</v>
@@ -6425,10 +6428,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B330" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C330">
         <v>9</v>
@@ -6436,10 +6439,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B331" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C331">
         <v>9</v>
@@ -6447,10 +6450,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B332" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C332">
         <v>9</v>
@@ -6458,10 +6461,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B333" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C333">
         <v>9</v>
@@ -6469,10 +6472,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B334" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C334">
         <v>9</v>
@@ -6480,10 +6483,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B335" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C335">
         <v>9</v>
@@ -6491,10 +6494,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B336" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C336">
         <v>9</v>
@@ -6502,10 +6505,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B337" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C337">
         <v>9</v>
@@ -6513,10 +6516,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B338" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C338">
         <v>9</v>
@@ -6524,10 +6527,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B339" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C339">
         <v>9</v>
@@ -6535,10 +6538,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B340" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C340">
         <v>9</v>
@@ -6546,10 +6549,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B341" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C341">
         <v>9</v>
@@ -6557,10 +6560,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B342" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C342">
         <v>9</v>
@@ -6568,10 +6571,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B343" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C343">
         <v>9</v>
@@ -6579,10 +6582,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B344" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C344">
         <v>9</v>
@@ -6590,10 +6593,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B345" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C345">
         <v>9</v>
@@ -6601,10 +6604,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B346" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C346">
         <v>9</v>
@@ -6612,10 +6615,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B347" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C347">
         <v>9</v>
@@ -6623,10 +6626,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B348" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C348">
         <v>9</v>
@@ -6634,10 +6637,10 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B349" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C349">
         <v>9</v>
@@ -6645,10 +6648,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B350" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C350">
         <v>9</v>
@@ -6656,10 +6659,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B351" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C351">
         <v>9</v>
@@ -6667,10 +6670,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B352" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C352">
         <v>10</v>
@@ -6678,10 +6681,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B353" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C353">
         <v>10</v>
@@ -6689,10 +6692,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B354" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C354">
         <v>10</v>
@@ -6700,10 +6703,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B355" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C355">
         <v>10</v>
@@ -6711,10 +6714,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B356" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C356">
         <v>10</v>
@@ -6722,10 +6725,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B357" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C357">
         <v>10</v>
@@ -6733,10 +6736,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B358" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C358">
         <v>10</v>
@@ -6744,10 +6747,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B359" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C359">
         <v>10</v>
@@ -6755,10 +6758,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B360" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C360">
         <v>10</v>
@@ -6766,10 +6769,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B361" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C361">
         <v>10</v>
@@ -6777,10 +6780,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B362" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C362">
         <v>10</v>
@@ -6788,10 +6791,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B363" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C363">
         <v>10</v>
@@ -6799,10 +6802,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B364" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C364">
         <v>10</v>
@@ -6810,10 +6813,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B365" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C365">
         <v>10</v>
@@ -6821,10 +6824,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B366" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C366">
         <v>10</v>
@@ -6832,10 +6835,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B367" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C367">
         <v>10</v>
@@ -6843,10 +6846,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B368" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C368">
         <v>10</v>
@@ -6854,10 +6857,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B369" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C369">
         <v>10</v>
@@ -6865,10 +6868,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B370" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C370">
         <v>10</v>
@@ -6876,10 +6879,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B371" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C371">
         <v>10</v>
@@ -6887,10 +6890,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B372" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="C372">
         <v>10</v>
@@ -6898,10 +6901,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B373" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C373">
         <v>10</v>
@@ -6909,10 +6912,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B374" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C374">
         <v>10</v>
@@ -6920,10 +6923,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B375" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C375">
         <v>10</v>
@@ -6931,10 +6934,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B376" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C376">
         <v>10</v>
@@ -6942,10 +6945,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B377" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C377">
         <v>10</v>
@@ -6953,10 +6956,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B378" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C378">
         <v>10</v>
@@ -6964,10 +6967,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B379" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C379">
         <v>10</v>
@@ -6975,10 +6978,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B380" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C380">
         <v>10</v>
@@ -6986,10 +6989,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B381" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C381">
         <v>10</v>
@@ -7000,7 +7003,7 @@
         <v>104</v>
       </c>
       <c r="B382" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C382">
         <v>10</v>
@@ -7008,10 +7011,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B383" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C383">
         <v>10</v>
@@ -7019,10 +7022,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B384" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C384">
         <v>10</v>
@@ -7030,10 +7033,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B385" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C385">
         <v>10</v>
@@ -7041,10 +7044,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B386" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C386">
         <v>10</v>
@@ -7052,10 +7055,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B387" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C387">
         <v>10</v>
@@ -7063,10 +7066,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B388" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C388">
         <v>10</v>
@@ -7074,10 +7077,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B389" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C389">
         <v>10</v>
@@ -7085,10 +7088,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B390" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C390">
         <v>10</v>
@@ -7096,10 +7099,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B391" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C391">
         <v>10</v>
@@ -7107,10 +7110,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B392" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="C392">
         <v>10</v>
@@ -7121,7 +7124,7 @@
         <v>16</v>
       </c>
       <c r="B393" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="C393">
         <v>10</v>
@@ -7129,10 +7132,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B394" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C394">
         <v>10</v>
@@ -7140,10 +7143,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B395" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C395">
         <v>10</v>
@@ -7151,10 +7154,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B396" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C396">
         <v>10</v>
@@ -7162,10 +7165,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B397" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C397">
         <v>10</v>
@@ -7173,10 +7176,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B398" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C398">
         <v>10</v>
@@ -7184,10 +7187,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B399" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C399">
         <v>10</v>
@@ -7195,10 +7198,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B400" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C400">
         <v>10</v>
@@ -7206,10 +7209,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B401" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C401">
         <v>10</v>
@@ -7217,10 +7220,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B402" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C402">
         <v>10</v>
@@ -7228,10 +7231,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B403" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C403">
         <v>10</v>
@@ -7239,10 +7242,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B404" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="C404">
         <v>10</v>
@@ -7250,10 +7253,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B405" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="C405">
         <v>10</v>
@@ -7261,10 +7264,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B406" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C406">
         <v>10</v>
@@ -7272,10 +7275,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B407" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="C407">
         <v>10</v>
@@ -7283,10 +7286,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B408" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C408">
         <v>10</v>
@@ -7294,10 +7297,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B409" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C409">
         <v>10</v>
@@ -7305,10 +7308,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B410" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C410">
         <v>10</v>
@@ -7323,20 +7326,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9d95c8ba-3e5d-4f53-814d-d691e039df1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9d95c8ba-3e5d-4f53-814d-d691e039df1d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7528,6 +7531,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59FD1898-BA9A-455F-AE38-48973A5DE731}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B10BEE-105A-4543-AC92-D9C20511CEC6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7539,14 +7550,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59FD1898-BA9A-455F-AE38-48973A5DE731}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
